--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>6.420457567081581e-23</v>
+        <v>3.667563233844462e-25</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>7.027661798009404e-23</v>
+        <v>9.671404114732816e-25</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>8.730228109413903e-23</v>
+        <v>1.426145802544842e-24</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>1.14603451896965e-22</v>
+        <v>1.433526261047674e-24</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.430966316084339e-22</v>
+        <v>1.459094612646069e-24</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.74288602896816e-22</v>
+        <v>1.528874439942481e-24</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.224738532756339e-22</v>
+        <v>1.320740919553094e-24</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.104587597052513e-21</v>
+        <v>1.396447625649171e-24</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.701633133132451e-21</v>
+        <v>1.029533856259773e-24</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.704696970219118e-21</v>
+        <v>1.234851958262673e-24</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.272074949698162e-21</v>
+        <v>9.163648290021624e-25</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>6.09926038413935e-22</v>
+        <v>7.788207221730468e-25</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>4.579255198530853e-22</v>
+        <v>1.080588139714103e-25</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>5.700285014944455e-22</v>
+        <v>6.857719525278108e-26</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.466108226148436e-22</v>
+        <v>6.938278864233027e-26</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.737048176223697e-22</v>
+        <v>5.894178195220449e-26</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>9.575188242553322e-23</v>
+        <v>5.978393009591632e-26</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>4.554080374201566e-23</v>
+        <v>7.618263895262165e-26</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>3.428777439365112e-23</v>
+        <v>6.197929748826195e-26</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.366407542345838e-23</v>
+        <v>7.134677493227516e-26</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3.83901825790664e-23</v>
+        <v>1.345191658599853e-25</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4.659757008258121e-23</v>
+        <v>1.491356290303062e-25</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>4.327615176838391e-23</v>
+        <v>1.940731462752393e-25</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>8.753190062557168e-23</v>
+        <v>2.081053935541011e-25</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>1.268311693957407e-22</v>
+        <v>1.787165029544431e-25</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>2.808675791562178e-22</v>
+        <v>2.130656421105217e-25</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>6.419271376044286e-22</v>
+        <v>1.90492186254446e-25</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>5.75245700034671e-22</v>
+        <v>1.970516331604475e-25</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.848913127835255e-22</v>
+        <v>1.909581541171103e-25</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.351295053291789e-22</v>
+        <v>1.868146531270298e-25</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>6.15438860319335e-23</v>
+        <v>1.730975184762123e-25</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>5.798460387480676e-23</v>
+        <v>1.569367009302984e-25</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.697410728131685e-23</v>
+        <v>1.834852136272309e-25</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.99148735963003e-23</v>
+        <v>1.573509457232976e-25</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.828515724685651e-23</v>
+        <v>1.497061678362923e-25</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.985050961907751e-23</v>
+        <v>9.52630280193335e-26</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>3.866233160810865e-23</v>
+        <v>9.535052603104285e-26</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>2.146744760238754e-23</v>
+        <v>7.69374491609856e-26</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>8.714294416461881e-24</v>
+        <v>9.304047545540541e-26</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>6.84269134075812e-24</v>
+        <v>1.385535930158702e-25</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>5.155031503043277e-24</v>
+        <v>1.385523517016993e-25</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>5.445172709080283e-24</v>
+        <v>1.267166923307749e-25</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>8.103801500898717e-24</v>
+        <v>1.083377435695206e-25</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>1.786425493365632e-23</v>
+        <v>1.082786197072561e-25</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.937463685478147e-23</v>
+        <v>9.919527599707687e-26</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>2.029691529966473e-23</v>
+        <v>5.308816505021151e-26</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>2.00574125217055e-23</v>
+        <v>5.620255533028015e-26</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.701284131670389e-23</v>
+        <v>6.755271886923787e-26</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>1.354510569176035e-23</v>
+        <v>8.718792907458625e-26</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>9.260227628427809e-24</v>
+        <v>1.070838780454271e-25</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>7.668379914744483e-24</v>
+        <v>2.019278013958478e-25</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>7.065592347022472e-24</v>
+        <v>3.059518161850267e-25</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>6.918366150230196e-24</v>
+        <v>7.932566337522068e-25</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>6.420345948428813e-24</v>
+        <v>1.211663920568343e-24</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>5.884896237432361e-24</v>
+        <v>1.194184750528727e-24</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5.655838828952907e-24</v>
+        <v>8.793400145235059e-25</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.471360857075149e-24</v>
+        <v>4.159560259747482e-25</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>8.432740065078207e-24</v>
+        <v>3.112292487719376e-25</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.170611792952956e-23</v>
+        <v>3.862132504075681e-25</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.399768933924331e-23</v>
+        <v>1.66491925811682e-25</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>1.694273496866972e-23</v>
+        <v>1.167337686847315e-25</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.986861559637242e-23</v>
+        <v>6.38179375822702e-26</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>2.065648543363301e-23</v>
+        <v>2.984117607051148e-26</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>2.406197003673953e-23</v>
+        <v>2.239415688801808e-26</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>2.687007168568493e-23</v>
+        <v>2.188124433655382e-26</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>2.624727780526682e-23</v>
+        <v>2.474737253033786e-26</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>2.765523022245477e-23</v>
+        <v>2.978146463668944e-26</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>2.689474530230408e-23</v>
+        <v>2.746793454072602e-26</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>2.596857763931061e-23</v>
+        <v>5.503914060118795e-26</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>2.477146284694162e-23</v>
+        <v>7.906748751475838e-26</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>2.431290371026268e-23</v>
+        <v>1.723389506226986e-25</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>2.247626485736231e-23</v>
+        <v>3.871564221467571e-25</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2.150785375802675e-23</v>
+        <v>3.41258063593968e-25</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.604401456768628e-23</v>
+        <v>1.662545704072259e-25</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>1.412719975508487e-23</v>
+        <v>7.755348362132882e-26</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>1.135935310755699e-23</v>
+        <v>3.472896773841188e-26</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>8.019676425694444e-24</v>
+        <v>3.219691268200888e-26</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>6.956614111919266e-24</v>
+        <v>2.018454815944092e-26</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>5.705608950017832e-24</v>
+        <v>1.606979327165002e-26</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>5.282477323811561e-24</v>
+        <v>9.737611367199049e-27</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>5.289648739507155e-24</v>
+        <v>1.048752809699346e-26</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>5.136472931853362e-24</v>
+        <v>2.009010891574204e-26</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>4.751890179650802e-24</v>
+        <v>1.078809822734717e-26</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>4.647985654855922e-24</v>
+        <v>4.306930471195576e-27</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>4.597785072555052e-24</v>
+        <v>3.327468207408817e-27</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.006773374623986e-24</v>
+        <v>2.424593683322395e-27</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>5.296199701440548e-24</v>
+        <v>2.477531961422071e-27</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>5.419662573564808e-24</v>
+        <v>3.566826196857882e-27</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>5.295558096145289e-24</v>
+        <v>7.795513309213907e-27</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>5.053784907270445e-24</v>
+        <v>8.402851854206778e-27</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>4.566950146899319e-24</v>
+        <v>8.6413164588871e-27</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>3.737824061555614e-24</v>
+        <v>8.469067190537913e-27</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.123058161778414e-24</v>
+        <v>7.122272631501833e-27</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>1.70552356622562e-24</v>
+        <v>5.577764288299581e-27</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.303697098826719e-24</v>
+        <v>3.751771148650529e-27</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>9.165853285532604e-25</v>
+        <v>3.055144751215688e-27</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>8.150815043822918e-25</v>
+        <v>2.805056468139308e-27</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.733974082611791e-25</v>
+        <v>2.732468266265569e-27</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>7.665227296655521e-25</v>
+        <v>2.515693641721589e-27</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>7.147397216824669e-25</v>
+        <v>2.268576495554572e-27</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>7.032659596000974e-25</v>
+        <v>2.108610130749322e-27</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>7.037010796052199e-25</v>
+        <v>2.348420866430033e-27</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>6.992641916390657e-25</v>
+        <v>2.94265922369095e-27</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>6.745154593365334e-25</v>
+        <v>4.017561294818213e-27</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>6.496980021403338e-25</v>
+        <v>4.723241822592342e-27</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>6.378479139799955e-25</v>
+        <v>5.624483461174958e-27</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>5.621378191834788e-25</v>
+        <v>6.528380528670044e-27</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>5.64889022985927e-25</v>
+        <v>6.741904010337296e-27</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>5.644176982632993e-25</v>
+        <v>7.766169264013897e-27</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>5.460838620402899e-25</v>
+        <v>8.53217572243348e-27</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>4.593707313478115e-25</v>
+        <v>8.285873340396577e-27</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>3.803864181946136e-25</v>
+        <v>8.636818843563017e-27</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>3.453667811585488e-25</v>
+        <v>8.328390404453129e-27</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>3.322299908105783e-25</v>
+        <v>8.003245165362422e-27</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>3.965643141251367e-25</v>
+        <v>7.594880716109069e-27</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>6.548865858118301e-25</v>
+        <v>7.427491528412958e-27</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>7.83628214392457e-25</v>
+        <v>6.835027741230694e-27</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>8.08787000154701e-25</v>
+        <v>6.520701093890443e-27</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>8.011720580855252e-25</v>
+        <v>4.783495623976988e-27</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>8.002947671725717e-25</v>
+        <v>4.174700710529771e-27</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>7.983926149227271e-25</v>
+        <v>3.331252370123897e-27</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>7.280788300342427e-25</v>
+        <v>2.313263877948102e-27</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>6.531789215808215e-25</v>
+        <v>1.988888229150516e-27</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>3.69891557055468e-25</v>
+        <v>1.618150686508281e-27</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>1.989121632053993e-25</v>
+        <v>1.490954893429853e-27</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.489653953483012e-25</v>
+        <v>1.492681705712306e-27</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.418594208148704e-25</v>
+        <v>1.444750202311458e-27</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.817395556858876e-25</v>
+        <v>1.325576988722135e-27</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>1.961049773502096e-25</v>
+        <v>1.290088638446026e-27</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>2.782488955261244e-25</v>
+        <v>1.271356643934797e-27</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>3.370497993323786e-25</v>
+        <v>1.378304354658945e-27</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>3.341775066139319e-25</v>
+        <v>1.450450432828336e-27</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>3.067263700159441e-25</v>
+        <v>1.477357349773347e-27</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>2.640344970681565e-25</v>
+        <v>1.435715147829604e-27</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>2.613195357521423e-25</v>
+        <v>1.363791781499443e-27</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>2.235917167681713e-25</v>
+        <v>1.221867862738511e-27</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.812460544742331e-25</v>
+        <v>9.919891164713741e-28</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>1.578655794110603e-25</v>
+        <v>5.541328392039302e-28</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>1.511864822093256e-25</v>
+        <v>4.414530135982498e-28</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>1.431409525783191e-25</v>
+        <v>3.348958436837314e-28</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>1.388973573987221e-25</v>
+        <v>2.316902417661281e-28</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.270628672523859e-25</v>
+        <v>2.040589690577992e-28</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>1.350115519007495e-25</v>
+        <v>1.924283547218623e-28</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.49014154629304e-25</v>
+        <v>1.897581312759502e-28</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>1.618296069671899e-25</v>
+        <v>1.763145433654991e-28</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>1.744327456831089e-25</v>
+        <v>1.731677522221089e-28</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.931242224637602e-25</v>
+        <v>1.731484158060641e-28</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>2.076622064841238e-25</v>
+        <v>1.719767715736121e-28</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.979585379183096e-25</v>
+        <v>1.652937537086856e-28</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>1.913484525733992e-25</v>
+        <v>1.586898080801776e-28</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>1.636115316545498e-25</v>
+        <v>1.552688616164023e-28</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>1.604397899260608e-25</v>
+        <v>1.364127848899424e-28</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>1.370723648433753e-25</v>
+        <v>1.367940777126396e-28</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.29797493040523e-25</v>
+        <v>1.36518991184693e-28</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.261078992540142e-25</v>
+        <v>1.314088928721606e-28</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.554749222166838e-25</v>
+        <v>1.096361939053758e-28</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.339572228626024e-25</v>
+        <v>9.003961715204527e-29</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>1.361712520784432e-25</v>
+        <v>8.110838762203573e-29</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>1.212590308523628e-25</v>
+        <v>7.783960313942795e-29</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>1.115863072543292e-25</v>
+        <v>9.231796287465833e-29</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>1.040159220483078e-25</v>
+        <v>1.51176613633383e-28</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>9.584735931485854e-26</v>
+        <v>1.80066192122871e-28</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>8.697413675229419e-26</v>
+        <v>1.848967363204581e-28</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>8.679070426791794e-26</v>
+        <v>1.82170700712072e-28</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>4.25167238627607e-26</v>
+        <v>1.813622319897989e-28</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.673473327098142e-26</v>
+        <v>1.806401498379082e-28</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.009980270873493e-26</v>
+        <v>1.630829646405827e-28</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.419733586888075e-26</v>
+        <v>1.457414452262399e-28</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>8.78623598503124e-27</v>
+        <v>8.108266428991131e-29</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>7.002370908946678e-27</v>
+        <v>4.219411001524626e-29</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>5.775130321536493e-27</v>
+        <v>3.055796950362148e-29</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>5.782179440599624e-27</v>
+        <v>2.815028709382075e-29</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>7.341353625721503e-27</v>
+        <v>3.550167666005394e-29</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.240892189938713e-26</v>
+        <v>3.808221899940579e-29</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.256794476365472e-26</v>
+        <v>5.340372727324283e-29</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>9.917455600325363e-27</v>
+        <v>6.364465016616553e-29</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>8.529117505519045e-27</v>
+        <v>6.257046167137525e-29</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.696169315740723e-29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.862988570595927e-29</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.81250518839863e-29</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.085100841754662e-29</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.283304166607578e-29</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.835143459928961e-29</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.702694416383751e-29</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.538860665600791e-29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.455225950581174e-29</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.236140109183839e-29</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.353071165091497e-29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.577153552389617e-29</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.777324327618943e-29</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.967454119205971e-29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.258988476272172e-29</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.474207734903116e-29</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.311699591426597e-29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.176984938970364e-29</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.692811189951478e-29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.639776390801007e-29</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.240344798800976e-29</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.116800396787644e-29</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.055536835083686e-29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.519662735858841e-29</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.165364837245045e-29</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.185502300595511e-29</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.939942847145956e-29</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.779102866324673e-29</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.65298972229634e-29</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.517651654013806e-29</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.372612141659894e-29</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.366062464255549e-29</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.635068585323229e-30</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.588760036750377e-30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.555056762106547e-30</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.184426864523647e-30</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.350699503081357e-30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.072722698069381e-30</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.790090154820115e-31</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8.753916073679255e-31</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.09255143621174e-30</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.814302455484915e-30</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.806470489637815e-30</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.399596627464333e-30</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.196002088070795e-30</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>3.667563233844462e-25</v>
+        <v>6.420457567081581e-23</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>9.671404114732816e-25</v>
+        <v>7.027661798009404e-23</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.426145802544842e-24</v>
+        <v>8.730228109413903e-23</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.433526261047674e-24</v>
+        <v>1.14603451896965e-22</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.459094612646069e-24</v>
+        <v>1.430966316084339e-22</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.528874439942481e-24</v>
+        <v>2.74288602896816e-22</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.320740919553094e-24</v>
+        <v>4.224738532756339e-22</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.396447625649171e-24</v>
+        <v>1.104587597052513e-21</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.029533856259773e-24</v>
+        <v>1.701633133132451e-21</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>1.234851958262673e-24</v>
+        <v>1.704696970219118e-21</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>9.163648290021624e-25</v>
+        <v>1.272074949698162e-21</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>7.788207221730468e-25</v>
+        <v>6.09926038413935e-22</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.080588139714103e-25</v>
+        <v>4.579255198530853e-22</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>6.857719525278108e-26</v>
+        <v>5.700285014944455e-22</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>6.938278864233027e-26</v>
+        <v>2.466108226148436e-22</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>5.894178195220449e-26</v>
+        <v>1.737048176223697e-22</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>5.978393009591632e-26</v>
+        <v>9.575188242553322e-23</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>7.618263895262165e-26</v>
+        <v>4.554080374201566e-23</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>6.197929748826195e-26</v>
+        <v>3.428777439365112e-23</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>7.134677493227516e-26</v>
+        <v>3.366407542345838e-23</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>1.345191658599853e-25</v>
+        <v>3.83901825790664e-23</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.491356290303062e-25</v>
+        <v>4.659757008258121e-23</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>1.940731462752393e-25</v>
+        <v>4.327615176838391e-23</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>2.081053935541011e-25</v>
+        <v>8.753190062557168e-23</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>1.787165029544431e-25</v>
+        <v>1.268311693957407e-22</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>2.130656421105217e-25</v>
+        <v>2.808675791562178e-22</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>1.90492186254446e-25</v>
+        <v>6.419271376044286e-22</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>1.970516331604475e-25</v>
+        <v>5.75245700034671e-22</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>1.909581541171103e-25</v>
+        <v>2.848913127835255e-22</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>1.868146531270298e-25</v>
+        <v>1.351295053291789e-22</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.730975184762123e-25</v>
+        <v>6.15438860319335e-23</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>1.569367009302984e-25</v>
+        <v>5.798460387480676e-23</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>1.834852136272309e-25</v>
+        <v>3.697410728131685e-23</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.573509457232976e-25</v>
+        <v>2.99148735963003e-23</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.497061678362923e-25</v>
+        <v>1.828515724685651e-23</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>9.52630280193335e-26</v>
+        <v>1.985050961907751e-23</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>9.535052603104285e-26</v>
+        <v>3.866233160810865e-23</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>7.69374491609856e-26</v>
+        <v>2.146744760238754e-23</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>9.304047545540541e-26</v>
+        <v>8.714294416461881e-24</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>1.385535930158702e-25</v>
+        <v>6.84269134075812e-24</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.385523517016993e-25</v>
+        <v>5.155031503043277e-24</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.267166923307749e-25</v>
+        <v>5.445172709080283e-24</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.083377435695206e-25</v>
+        <v>8.103801500898717e-24</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.082786197072561e-25</v>
+        <v>1.786425493365632e-23</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>9.919527599707687e-26</v>
+        <v>1.937463685478147e-23</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>5.308816505021151e-26</v>
+        <v>2.029691529966473e-23</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>5.620255533028015e-26</v>
+        <v>2.00574125217055e-23</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>6.755271886923787e-26</v>
+        <v>1.701284131670389e-23</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>8.718792907458625e-26</v>
+        <v>1.354510569176035e-23</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>1.070838780454271e-25</v>
+        <v>9.260227628427809e-24</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>2.019278013958478e-25</v>
+        <v>7.668379914744483e-24</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>3.059518161850267e-25</v>
+        <v>7.065592347022472e-24</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>7.932566337522068e-25</v>
+        <v>6.918366150230196e-24</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>1.211663920568343e-24</v>
+        <v>6.420345948428813e-24</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>1.194184750528727e-24</v>
+        <v>5.884896237432361e-24</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>8.793400145235059e-25</v>
+        <v>5.655838828952907e-24</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>4.159560259747482e-25</v>
+        <v>6.471360857075149e-24</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>3.112292487719376e-25</v>
+        <v>8.432740065078207e-24</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>3.862132504075681e-25</v>
+        <v>1.170611792952956e-23</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>1.66491925811682e-25</v>
+        <v>1.399768933924331e-23</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.167337686847315e-25</v>
+        <v>1.694273496866972e-23</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>6.38179375822702e-26</v>
+        <v>1.986861559637242e-23</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.984117607051148e-26</v>
+        <v>2.065648543363301e-23</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>2.239415688801808e-26</v>
+        <v>2.406197003673953e-23</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>2.188124433655382e-26</v>
+        <v>2.687007168568493e-23</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>2.474737253033786e-26</v>
+        <v>2.624727780526682e-23</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>2.978146463668944e-26</v>
+        <v>2.765523022245477e-23</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>2.746793454072602e-26</v>
+        <v>2.689474530230408e-23</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>5.503914060118795e-26</v>
+        <v>2.596857763931061e-23</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>7.906748751475838e-26</v>
+        <v>2.477146284694162e-23</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>1.723389506226986e-25</v>
+        <v>2.431290371026268e-23</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>3.871564221467571e-25</v>
+        <v>2.247626485736231e-23</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>3.41258063593968e-25</v>
+        <v>2.150785375802675e-23</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>1.662545704072259e-25</v>
+        <v>1.604401456768628e-23</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>7.755348362132882e-26</v>
+        <v>1.412719975508487e-23</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>3.472896773841188e-26</v>
+        <v>1.135935310755699e-23</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>3.219691268200888e-26</v>
+        <v>8.019676425694444e-24</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>2.018454815944092e-26</v>
+        <v>6.956614111919266e-24</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.606979327165002e-26</v>
+        <v>5.705608950017832e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>9.737611367199049e-27</v>
+        <v>5.282477323811561e-24</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>1.048752809699346e-26</v>
+        <v>5.289648739507155e-24</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.009010891574204e-26</v>
+        <v>5.136472931853362e-24</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.078809822734717e-26</v>
+        <v>4.751890179650802e-24</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>4.306930471195576e-27</v>
+        <v>4.647985654855922e-24</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>3.327468207408817e-27</v>
+        <v>4.597785072555052e-24</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>2.424593683322395e-27</v>
+        <v>5.006773374623986e-24</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.477531961422071e-27</v>
+        <v>5.296199701440548e-24</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.566826196857882e-27</v>
+        <v>5.419662573564808e-24</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.795513309213907e-27</v>
+        <v>5.295558096145289e-24</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.402851854206778e-27</v>
+        <v>5.053784907270445e-24</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>8.6413164588871e-27</v>
+        <v>4.566950146899319e-24</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>8.469067190537913e-27</v>
+        <v>3.737824061555614e-24</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>7.122272631501833e-27</v>
+        <v>2.123058161778414e-24</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>5.577764288299581e-27</v>
+        <v>1.70552356622562e-24</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>3.751771148650529e-27</v>
+        <v>1.303697098826719e-24</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>3.055144751215688e-27</v>
+        <v>9.165853285532604e-25</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>2.805056468139308e-27</v>
+        <v>8.150815043822918e-25</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>2.732468266265569e-27</v>
+        <v>7.733974082611791e-25</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>2.515693641721589e-27</v>
+        <v>7.665227296655521e-25</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>2.268576495554572e-27</v>
+        <v>7.147397216824669e-25</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>2.108610130749322e-27</v>
+        <v>7.032659596000974e-25</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>2.348420866430033e-27</v>
+        <v>7.037010796052199e-25</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>2.94265922369095e-27</v>
+        <v>6.992641916390657e-25</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>4.017561294818213e-27</v>
+        <v>6.745154593365334e-25</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>4.723241822592342e-27</v>
+        <v>6.496980021403338e-25</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>5.624483461174958e-27</v>
+        <v>6.378479139799955e-25</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>6.528380528670044e-27</v>
+        <v>5.621378191834788e-25</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>6.741904010337296e-27</v>
+        <v>5.64889022985927e-25</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>7.766169264013897e-27</v>
+        <v>5.644176982632993e-25</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>8.53217572243348e-27</v>
+        <v>5.460838620402899e-25</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>8.285873340396577e-27</v>
+        <v>4.593707313478115e-25</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>8.636818843563017e-27</v>
+        <v>3.803864181946136e-25</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>8.328390404453129e-27</v>
+        <v>3.453667811585488e-25</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>8.003245165362422e-27</v>
+        <v>3.322299908105783e-25</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>7.594880716109069e-27</v>
+        <v>3.965643141251367e-25</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>7.427491528412958e-27</v>
+        <v>6.548865858118301e-25</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>6.835027741230694e-27</v>
+        <v>7.83628214392457e-25</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>6.520701093890443e-27</v>
+        <v>8.08787000154701e-25</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>4.783495623976988e-27</v>
+        <v>8.011720580855252e-25</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>4.174700710529771e-27</v>
+        <v>8.002947671725717e-25</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>3.331252370123897e-27</v>
+        <v>7.983926149227271e-25</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>2.313263877948102e-27</v>
+        <v>7.280788300342427e-25</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.988888229150516e-27</v>
+        <v>6.531789215808215e-25</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.618150686508281e-27</v>
+        <v>3.69891557055468e-25</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.490954893429853e-27</v>
+        <v>1.989121632053993e-25</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.492681705712306e-27</v>
+        <v>1.489653953483012e-25</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.444750202311458e-27</v>
+        <v>1.418594208148704e-25</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.325576988722135e-27</v>
+        <v>1.817395556858876e-25</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.290088638446026e-27</v>
+        <v>1.961049773502096e-25</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.271356643934797e-27</v>
+        <v>2.782488955261244e-25</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.378304354658945e-27</v>
+        <v>3.370497993323786e-25</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.450450432828336e-27</v>
+        <v>3.341775066139319e-25</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.477357349773347e-27</v>
+        <v>3.067263700159441e-25</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.435715147829604e-27</v>
+        <v>2.640344970681565e-25</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.363791781499443e-27</v>
+        <v>2.613195357521423e-25</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.221867862738511e-27</v>
+        <v>2.235917167681713e-25</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>9.919891164713741e-28</v>
+        <v>1.812460544742331e-25</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>5.541328392039302e-28</v>
+        <v>1.578655794110603e-25</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>4.414530135982498e-28</v>
+        <v>1.511864822093256e-25</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>3.348958436837314e-28</v>
+        <v>1.431409525783191e-25</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>2.316902417661281e-28</v>
+        <v>1.388973573987221e-25</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.040589690577992e-28</v>
+        <v>1.270628672523859e-25</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.924283547218623e-28</v>
+        <v>1.350115519007495e-25</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.897581312759502e-28</v>
+        <v>1.49014154629304e-25</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.763145433654991e-28</v>
+        <v>1.618296069671899e-25</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.731677522221089e-28</v>
+        <v>1.744327456831089e-25</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.731484158060641e-28</v>
+        <v>1.931242224637602e-25</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.719767715736121e-28</v>
+        <v>2.076622064841238e-25</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.652937537086856e-28</v>
+        <v>1.979585379183096e-25</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.586898080801776e-28</v>
+        <v>1.913484525733992e-25</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.552688616164023e-28</v>
+        <v>1.636115316545498e-25</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.364127848899424e-28</v>
+        <v>1.604397899260608e-25</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.367940777126396e-28</v>
+        <v>1.370723648433753e-25</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.36518991184693e-28</v>
+        <v>1.29797493040523e-25</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.314088928721606e-28</v>
+        <v>1.261078992540142e-25</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.096361939053758e-28</v>
+        <v>1.554749222166838e-25</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>9.003961715204527e-29</v>
+        <v>1.339572228626024e-25</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>8.110838762203573e-29</v>
+        <v>1.361712520784432e-25</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>7.783960313942795e-29</v>
+        <v>1.212590308523628e-25</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>9.231796287465833e-29</v>
+        <v>1.115863072543292e-25</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>1.51176613633383e-28</v>
+        <v>1.040159220483078e-25</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>1.80066192122871e-28</v>
+        <v>9.584735931485854e-26</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>1.848967363204581e-28</v>
+        <v>8.697413675229419e-26</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>1.82170700712072e-28</v>
+        <v>8.679070426791794e-26</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>1.813622319897989e-28</v>
+        <v>4.25167238627607e-26</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>1.806401498379082e-28</v>
+        <v>1.673473327098142e-26</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.630829646405827e-28</v>
+        <v>1.009980270873493e-26</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.457414452262399e-28</v>
+        <v>1.419733586888075e-26</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>8.108266428991131e-29</v>
+        <v>8.78623598503124e-27</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>4.219411001524626e-29</v>
+        <v>7.002370908946678e-27</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>3.055796950362148e-29</v>
+        <v>5.775130321536493e-27</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>2.815028709382075e-29</v>
+        <v>5.782179440599624e-27</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>3.550167666005394e-29</v>
+        <v>7.341353625721503e-27</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>3.808221899940579e-29</v>
+        <v>1.240892189938713e-26</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>5.340372727324283e-29</v>
+        <v>1.256794476365472e-26</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>6.364465016616553e-29</v>
+        <v>9.917455600325363e-27</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>6.257046167137525e-29</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.696169315740723e-29</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.862988570595927e-29</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.81250518839863e-29</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.085100841754662e-29</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.283304166607578e-29</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.835143459928961e-29</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.702694416383751e-29</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.538860665600791e-29</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.455225950581174e-29</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.236140109183839e-29</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.353071165091497e-29</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.577153552389617e-29</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.777324327618943e-29</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.967454119205971e-29</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.258988476272172e-29</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.474207734903116e-29</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.311699591426597e-29</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.176984938970364e-29</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.692811189951478e-29</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.639776390801007e-29</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.240344798800976e-29</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.116800396787644e-29</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.055536835083686e-29</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.519662735858841e-29</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.165364837245045e-29</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.185502300595511e-29</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.939942847145956e-29</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.779102866324673e-29</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.65298972229634e-29</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.517651654013806e-29</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.372612141659894e-29</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.366062464255549e-29</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.635068585323229e-30</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.588760036750377e-30</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.555056762106547e-30</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.184426864523647e-30</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.350699503081357e-30</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.072722698069381e-30</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>8.790090154820115e-31</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>8.753916073679255e-31</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.09255143621174e-30</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.814302455484915e-30</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.806470489637815e-30</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.399596627464333e-30</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.196002088070795e-30</v>
+        <v>8.529117505519045e-27</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>6.420457567081581e-23</v>
+        <v>5.7404592223378e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>7.027661798009404e-23</v>
+        <v>9.427430953778344e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>8.730228109413903e-23</v>
+        <v>1.295970988946685e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>1.14603451896965e-22</v>
+        <v>1.24444373836682e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.430966316084339e-22</v>
+        <v>1.499088552471138e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.74288602896816e-22</v>
+        <v>1.41758954955517e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.224738532756339e-22</v>
+        <v>1.30329972452141e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.104587597052513e-21</v>
+        <v>1.365327851455703e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.701633133132451e-21</v>
+        <v>9.606990425970425e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.704696970219118e-21</v>
+        <v>1.15574905192832e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.272074949698162e-21</v>
+        <v>1.225945301971244e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>6.09926038413935e-22</v>
+        <v>7.48131109707371e-07</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>4.579255198530853e-22</v>
+        <v>9.937847393450378e-08</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>5.700285014944455e-22</v>
+        <v>6.244727573102821e-08</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.466108226148436e-22</v>
+        <v>6.662062542869764e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.737048176223697e-22</v>
+        <v>5.525101072699446e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>9.575188242553322e-23</v>
+        <v>5.661069262481517e-08</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>4.554080374201566e-23</v>
+        <v>7.102233467634816e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>3.428777439365112e-23</v>
+        <v>5.808507799809759e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.366407542345838e-23</v>
+        <v>6.851923572887315e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>3.83901825790664e-23</v>
+        <v>1.222641309878457e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>4.659757008258121e-23</v>
+        <v>1.411723165935076e-07</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4.327615176838391e-23</v>
+        <v>1.932655728825774e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>8.753190062557168e-23</v>
+        <v>2.007646092891088e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>1.268311693957407e-22</v>
+        <v>1.852291877703987e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>2.808675791562178e-22</v>
+        <v>1.997784352836631e-07</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>6.419271376044286e-22</v>
+        <v>1.913935572643275e-07</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>5.75245700034671e-22</v>
+        <v>1.883400562629768e-07</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.848913127835255e-22</v>
+        <v>1.827381132004593e-07</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.351295053291789e-22</v>
+        <v>1.818579280465154e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>6.15438860319335e-23</v>
+        <v>1.669681139306772e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>5.798460387480676e-23</v>
+        <v>1.542074954934574e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.697410728131685e-23</v>
+        <v>1.709231532705144e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.99148735963003e-23</v>
+        <v>1.489994725970647e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.828515724685651e-23</v>
+        <v>1.39925744277387e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.985050961907751e-23</v>
+        <v>9.219567169380195e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>3.866233160810865e-23</v>
+        <v>8.98129576735223e-08</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>2.146744760238754e-23</v>
+        <v>8.312300400978585e-08</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>8.714294416461881e-24</v>
+        <v>8.796134587476206e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>6.84269134075812e-24</v>
+        <v>1.298171395586243e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>5.155031503043277e-24</v>
+        <v>1.30846088879506e-07</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>5.445172709080283e-24</v>
+        <v>1.17879924433675e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>8.103801500898717e-24</v>
+        <v>1.012408927225978e-07</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.786425493365632e-23</v>
+        <v>1.006171805866062e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.937463685478147e-23</v>
+        <v>9.276864399509803e-08</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>2.029691529966473e-23</v>
+        <v>4.922622169627371e-08</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>2.00574125217055e-23</v>
+        <v>5.253689113818788e-08</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.701284131670389e-23</v>
+        <v>6.284117305995267e-08</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>1.354510569176035e-23</v>
+        <v>8.1631162826636e-08</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>9.260227628427809e-24</v>
+        <v>1.000878319868262e-07</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>7.668379914744483e-24</v>
+        <v>1.879661785267158e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>7.065592347022472e-24</v>
+        <v>2.848053219655093e-07</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>6.918366150230196e-24</v>
+        <v>7.407449558113679e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>6.420345948428813e-24</v>
+        <v>1.130383146830606e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>5.884896237432361e-24</v>
+        <v>1.112471844264615e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>5.655838828952907e-24</v>
+        <v>8.195803412524058e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.471360857075149e-24</v>
+        <v>3.885467287529554e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>8.432740065078207e-24</v>
+        <v>2.909755925961046e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.170611792952956e-23</v>
+        <v>3.603582515094126e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.399768933924331e-23</v>
+        <v>1.551568496203564e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>1.694273496866972e-23</v>
+        <v>1.085107591706657e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.986861559637242e-23</v>
+        <v>5.920128068071425e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>2.065648543363301e-23</v>
+        <v>2.78423095029453e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>2.406197003673953e-23</v>
+        <v>2.092741925567702e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>2.687007168568493e-23</v>
+        <v>2.060382029561146e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>2.624727780526682e-23</v>
+        <v>2.304647953424212e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>2.765523022245477e-23</v>
+        <v>2.841558262976331e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>2.689474530230408e-23</v>
+        <v>2.629040905642892e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>2.596857763931061e-23</v>
+        <v>5.024567707848074e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>2.477146284694162e-23</v>
+        <v>7.47424045081089e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>2.431290371026268e-23</v>
+        <v>1.608460432020257e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>2.247626485736231e-23</v>
+        <v>3.612227099180952e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>2.150785375802675e-23</v>
+        <v>3.185776406575992e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>1.604401456768628e-23</v>
+        <v>1.550386608132497e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>1.412719975508487e-23</v>
+        <v>7.270839673740051e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>1.135935310755699e-23</v>
+        <v>3.239141692602464e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>8.019676425694444e-24</v>
+        <v>3.014381086323463e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>6.956614111919266e-24</v>
+        <v>1.920925201853102e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>5.705608950017832e-24</v>
+        <v>1.498314483249061e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>5.282477323811561e-24</v>
+        <v>9.062008080244758e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>5.289648739507155e-24</v>
+        <v>9.770634946111686e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>5.136472931853362e-24</v>
+        <v>1.870344449816376e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>4.751890179650802e-24</v>
+        <v>1.003980421213581e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>4.647985654855922e-24</v>
+        <v>4.00231316052081e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>4.597785072555052e-24</v>
+        <v>3.098957286350417e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.006773374623986e-24</v>
+        <v>2.262355644524957e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>5.296199701440548e-24</v>
+        <v>2.292319244528351e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>5.419662573564808e-24</v>
+        <v>3.325907242233414e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>5.295558096145289e-24</v>
+        <v>7.257069074712054e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>5.053784907270445e-24</v>
+        <v>7.814658552029228e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>4.566950146899319e-24</v>
+        <v>8.071252900269475e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>3.737824061555614e-24</v>
+        <v>7.878377210097275e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.123058161778414e-24</v>
+        <v>6.611401426739343e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>1.70552356622562e-24</v>
+        <v>5.204562678382687e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.303697098826719e-24</v>
+        <v>3.494247906414687e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>9.165853285532604e-25</v>
+        <v>2.85287291029916e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>8.150815043822918e-25</v>
+        <v>2.620973194615631e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.733974082611791e-25</v>
+        <v>2.528202274678303e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>7.665227296655521e-25</v>
+        <v>2.350361834637571e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>7.147397216824669e-25</v>
+        <v>2.112062610749581e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>7.032659596000974e-25</v>
+        <v>1.964864878041562e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>7.037010796052199e-25</v>
+        <v>2.191775257090132e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>6.992641916390657e-25</v>
+        <v>2.742438699515138e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>6.745154593365334e-25</v>
+        <v>3.741562363782745e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>6.496980021403338e-25</v>
+        <v>4.403069935534704e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>6.378479139799955e-25</v>
+        <v>5.236660915588536e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>5.621378191834788e-25</v>
+        <v>6.084520442454604e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>5.64889022985927e-25</v>
+        <v>6.281356418202709e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>5.644176982632993e-25</v>
+        <v>7.245012438960861e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>5.460838620402899e-25</v>
+        <v>7.951664529604833e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>4.593707313478115e-25</v>
+        <v>7.721192064431841e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>3.803864181946136e-25</v>
+        <v>8.042718859119044e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>3.453667811585488e-25</v>
+        <v>7.757943505943742e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>3.322299908105783e-25</v>
+        <v>7.457041286727292e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>3.965643141251367e-25</v>
+        <v>7.078430457361192e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>6.548865858118301e-25</v>
+        <v>6.910898917804905e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>7.83628214392457e-25</v>
+        <v>6.366632342075591e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>8.08787000154701e-25</v>
+        <v>6.075883225865998e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>8.011720580855252e-25</v>
+        <v>4.456286274598263e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>8.002947671725717e-25</v>
+        <v>3.887433773783721e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>7.983926149227271e-25</v>
+        <v>3.107130853505388e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>7.280788300342427e-25</v>
+        <v>2.154900826105704e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>6.531789215808215e-25</v>
+        <v>1.852425560840921e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>3.69891557055468e-25</v>
+        <v>1.509551093784171e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>1.989121632053993e-25</v>
+        <v>1.389398196673226e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.489653953483012e-25</v>
+        <v>1.391934032650133e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.418594208148704e-25</v>
+        <v>1.349245895442498e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.817395556858876e-25</v>
+        <v>1.235480281092548e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>1.961049773502096e-25</v>
+        <v>1.204198758404818e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>2.782488955261244e-25</v>
+        <v>1.183631937855416e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>3.370497993323786e-25</v>
+        <v>1.284466909205625e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>3.341775066139319e-25</v>
+        <v>1.350518122883777e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>3.067263700159441e-25</v>
+        <v>1.375541489438646e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>2.640344970681565e-25</v>
+        <v>1.339300762755812e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>2.613195357521423e-25</v>
+        <v>1.269473577807039e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>2.235917167681713e-25</v>
+        <v>1.137847539128087e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.812460544742331e-25</v>
+        <v>9.248208095371422e-10</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>1.578655794110603e-25</v>
+        <v>5.160122855968367e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>1.511864822093256e-25</v>
+        <v>4.100841068174159e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.431409525783191e-25</v>
+        <v>3.12481595573754e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>1.388973573987221e-25</v>
+        <v>2.162398916595389e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.270628672523859e-25</v>
+        <v>1.897832243814899e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>1.350115519007495e-25</v>
+        <v>1.78330492525574e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.49014154629304e-25</v>
+        <v>1.76629371009059e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>1.618296069671899e-25</v>
+        <v>1.642944678921768e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>1.744327456831089e-25</v>
+        <v>1.621768620892962e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.931242224637602e-25</v>
+        <v>1.61606727920098e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>2.076622064841238e-25</v>
+        <v>1.603887314669698e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.979585379183096e-25</v>
+        <v>1.538960484687469e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>1.913484525733992e-25</v>
+        <v>1.471831161429086e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>1.636115316545498e-25</v>
+        <v>1.440566319154372e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>1.604397899260608e-25</v>
+        <v>1.276784121846618e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>1.370723648433753e-25</v>
+        <v>1.273396373406117e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.29797493040523e-25</v>
+        <v>1.275336594824621e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.261078992540142e-25</v>
+        <v>1.224231362010053e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.554749222166838e-25</v>
+        <v>1.022381507724155e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.339572228626024e-25</v>
+        <v>8.44339975792227e-11</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>1.361712520784432e-25</v>
+        <v>7.547306371339856e-11</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>1.212590308523628e-25</v>
+        <v>7.243672228065908e-11</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>1.115863072543292e-25</v>
+        <v>8.581231713051696e-11</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>1.040159220483078e-25</v>
+        <v>1.417271192822604e-10</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>9.584735931485854e-26</v>
+        <v>1.67381573846316e-10</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>8.697413675229419e-26</v>
+        <v>1.721829873364845e-10</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>8.679070426791794e-26</v>
+        <v>1.693063614300163e-10</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>4.25167238627607e-26</v>
+        <v>1.687132245686853e-10</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.673473327098142e-26</v>
+        <v>1.682852665952825e-10</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.009980270873493e-26</v>
+        <v>1.517382615028661e-10</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.419733586888075e-26</v>
+        <v>1.359887570840749e-10</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>8.78623598503124e-27</v>
+        <v>7.553208617144979e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>7.002370908946678e-27</v>
+        <v>3.927549178649102e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>5.775130321536493e-27</v>
+        <v>2.84961332486634e-11</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>5.782179440599624e-27</v>
+        <v>2.625655368844075e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>7.341353625721503e-27</v>
+        <v>3.315890217145003e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.240892189938713e-26</v>
+        <v>3.538662785012318e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.256794476365472e-26</v>
+        <v>4.959525391961191e-11</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>9.917455600325363e-27</v>
+        <v>5.962312002531652e-11</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>8.529117505519045e-27</v>
+        <v>5.823465803071459e-11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.304367514817492e-11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.519920320654962e-11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.48371261502013e-11</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.806203347041732e-11</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.055937276467417e-11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.648836753848962e-11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.53750370580748e-11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.372625898673445e-11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.292508394130084e-11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.092535972637342e-11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.197681652994904e-11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.407922188304528e-11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.589384932427284e-11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.759366143160444e-11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.033311712554949e-11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.23898225416513e-11</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.086413788067149e-11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.95274108039812e-11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.510001516514056e-11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.459908744147366e-11</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.090935796220203e-11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.974993005130629e-11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.918224229124927e-11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.348073439421347e-11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.016310269668741e-11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.030704371559424e-11</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.808171261413829e-11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.658490445701245e-11</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.539947332254789e-11</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.410794526587446e-11</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.278312990104086e-11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.2754321556143e-11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.200349471641717e-12</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.409205960069707e-12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.447054325938391e-12</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.035219769244025e-12</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.25799229433184e-12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9.973206274135117e-13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.115961142039485e-13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>7.985378608490586e-13</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.02009670504812e-12</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.687250385639686e-12</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.68054146236124e-12</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.302706321797025e-12</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.11186982267649e-12</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.7404592223378e-07</v>
+        <v>6.592970760085348e-23</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>9.427430953778344e-07</v>
+        <v>6.988932451554644e-23</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.295970988946685e-06</v>
+        <v>8.620156757006275e-23</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.24444373836682e-06</v>
+        <v>1.14794663251746e-22</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.499088552471138e-06</v>
+        <v>1.430302942313227e-22</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.41758954955517e-06</v>
+        <v>2.667956772121804e-22</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.30329972452141e-06</v>
+        <v>4.115540807570333e-22</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.365327851455703e-06</v>
+        <v>1.057358450020449e-21</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>9.606990425970425e-07</v>
+        <v>1.623475958579946e-21</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.15574905192832e-06</v>
+        <v>1.634527012101801e-21</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.225945301971244e-06</v>
+        <v>1.215628146732826e-21</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>7.48131109707371e-07</v>
+        <v>5.821216430507631e-22</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>9.937847393450378e-08</v>
+        <v>4.407204153280779e-22</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>6.244727573102821e-08</v>
+        <v>5.475643528777981e-22</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>6.662062542869764e-08</v>
+        <v>2.401709241721132e-22</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>5.525101072699446e-08</v>
+        <v>1.66025525492745e-22</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>5.661069262481517e-08</v>
+        <v>9.268980219917193e-23</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>7.102233467634816e-08</v>
+        <v>4.586912729090012e-23</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>5.808507799809759e-08</v>
+        <v>3.444405745553724e-23</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>6.851923572887315e-08</v>
+        <v>3.343530090022058e-23</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.222641309878457e-07</v>
+        <v>3.926811127129991e-23</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.411723165935076e-07</v>
+        <v>4.703633194406607e-23</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.932655728825774e-07</v>
+        <v>4.360999713636429e-23</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>2.007646092891088e-07</v>
+        <v>8.535462835701102e-23</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.852291877703987e-07</v>
+        <v>1.26862195013448e-22</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.997784352836631e-07</v>
+        <v>2.695722219269083e-22</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.913935572643275e-07</v>
+        <v>6.209697362604268e-22</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1.883400562629768e-07</v>
+        <v>5.593370111115502e-22</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.827381132004593e-07</v>
+        <v>2.718247161295287e-22</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.818579280465154e-07</v>
+        <v>1.311766079649315e-22</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.669681139306772e-07</v>
+        <v>6.011211871483176e-23</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.542074954934574e-07</v>
+        <v>5.598949713911973e-23</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.709231532705144e-07</v>
+        <v>3.497935056154219e-23</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.489994725970647e-07</v>
+        <v>2.977504496188738e-23</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.39925744277387e-07</v>
+        <v>1.706052419320436e-23</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>9.219567169380195e-08</v>
+        <v>1.965784994987117e-23</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>8.98129576735223e-08</v>
+        <v>3.809970399970035e-23</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>8.312300400978585e-08</v>
+        <v>2.107560742876592e-23</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>8.796134587476206e-08</v>
+        <v>8.606262782578748e-24</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.298171395586243e-07</v>
+        <v>7.039945854515554e-24</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.30846088879506e-07</v>
+        <v>5.218917798962194e-24</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.17879924433675e-07</v>
+        <v>5.277227972695229e-24</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.012408927225978e-07</v>
+        <v>8.094778115272711e-24</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.006171805866062e-07</v>
+        <v>1.741808629939654e-23</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>9.276864399509803e-08</v>
+        <v>1.891665513384326e-23</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.922622169627371e-08</v>
+        <v>1.98944225491928e-23</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>5.253689113818788e-08</v>
+        <v>1.94469332114454e-23</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>6.284117305995267e-08</v>
+        <v>1.634217318130768e-23</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>8.1631162826636e-08</v>
+        <v>1.328124378883428e-23</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.000878319868262e-07</v>
+        <v>9.136918694454599e-24</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.879661785267158e-07</v>
+        <v>7.678329064256064e-24</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2.848053219655093e-07</v>
+        <v>7.000169781121812e-24</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>7.407449558113679e-07</v>
+        <v>6.784264682986671e-24</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.130383146830606e-06</v>
+        <v>6.337416980837264e-24</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.112471844264615e-06</v>
+        <v>5.77495149402998e-24</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>8.195803412524058e-07</v>
+        <v>5.551472371833441e-24</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>3.885467287529554e-07</v>
+        <v>6.367970189856639e-24</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>2.909755925961046e-07</v>
+        <v>8.232069158328179e-24</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>3.603582515094126e-07</v>
+        <v>1.124101977013933e-23</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.551568496203564e-07</v>
+        <v>1.349994037832926e-23</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.085107591706657e-07</v>
+        <v>1.626259646161762e-23</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>5.920128068071425e-08</v>
+        <v>1.905028032035551e-23</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.78423095029453e-08</v>
+        <v>1.977884239564927e-23</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.092741925567702e-08</v>
+        <v>2.309362258826734e-23</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>2.060382029561146e-08</v>
+        <v>2.569860871415034e-23</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>2.304647953424212e-08</v>
+        <v>2.512959670404101e-23</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>2.841558262976331e-08</v>
+        <v>2.639584627757617e-23</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>2.629040905642892e-08</v>
+        <v>2.569890102942751e-23</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>5.024567707848074e-08</v>
+        <v>2.485732942065623e-23</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>7.47424045081089e-08</v>
+        <v>2.369127604651907e-23</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.608460432020257e-07</v>
+        <v>2.319609831528206e-23</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>3.612227099180952e-07</v>
+        <v>2.14462614931265e-23</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>3.185776406575992e-07</v>
+        <v>2.057547855585347e-23</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>1.550386608132497e-07</v>
+        <v>1.53566975845871e-23</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>7.270839673740051e-08</v>
+        <v>1.353035634419924e-23</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.239141692602464e-08</v>
+        <v>1.088730285855735e-23</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>3.014381086323463e-08</v>
+        <v>7.681373423155803e-24</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.920925201853102e-08</v>
+        <v>6.674039849041164e-24</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.498314483249061e-08</v>
+        <v>5.493855820962098e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>9.062008080244758e-09</v>
+        <v>5.079472360139932e-24</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>9.770634946111686e-09</v>
+        <v>5.09486505347763e-24</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.870344449816376e-08</v>
+        <v>4.956939479351796e-24</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.003980421213581e-08</v>
+        <v>4.569027232167918e-24</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>4.00231316052081e-09</v>
+        <v>4.482059235964506e-24</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3.098957286350417e-09</v>
+        <v>4.436877881613648e-24</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>2.262355644524957e-09</v>
+        <v>4.794639364411239e-24</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>2.292319244528351e-09</v>
+        <v>5.087353839103508e-24</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>3.325907242233414e-09</v>
+        <v>5.201520989365834e-24</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>7.257069074712054e-09</v>
+        <v>5.1011190300625e-24</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7.814658552029228e-09</v>
+        <v>4.840869860301159e-24</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>8.071252900269475e-09</v>
+        <v>4.374796914631796e-24</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>7.878377210097275e-09</v>
+        <v>3.597712978287735e-24</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>6.611401426739343e-09</v>
+        <v>2.047389826242485e-24</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>5.204562678382687e-09</v>
+        <v>1.643137342022173e-24</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>3.494247906414687e-09</v>
+        <v>1.271497457959941e-24</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>2.85287291029916e-09</v>
+        <v>8.963785687607498e-25</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.620973194615631e-09</v>
+        <v>7.997275136961873e-25</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.528202274678303e-09</v>
+        <v>7.57661094043338e-25</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.350361834637571e-09</v>
+        <v>7.527349813283297e-25</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.112062610749581e-09</v>
+        <v>7.009758984355778e-25</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.964864878041562e-09</v>
+        <v>6.928135307262895e-25</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.191775257090132e-09</v>
+        <v>6.955044987628196e-25</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.742438699515138e-09</v>
+        <v>6.848842787039136e-25</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>3.741562363782745e-09</v>
+        <v>6.572816835964645e-25</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>4.403069935534704e-09</v>
+        <v>6.282192571651804e-25</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>5.236660915588536e-09</v>
+        <v>6.082130951786993e-25</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>6.084520442454604e-09</v>
+        <v>5.604078343472378e-25</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>6.281356418202709e-09</v>
+        <v>5.577707502449095e-25</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>7.245012438960861e-09</v>
+        <v>5.635151128304663e-25</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>7.951664529604833e-09</v>
+        <v>5.413788566312063e-25</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>7.721192064431841e-09</v>
+        <v>4.55292173334812e-25</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>8.042718859119044e-09</v>
+        <v>3.821150748101205e-25</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>7.757943505943742e-09</v>
+        <v>3.441105178391012e-25</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>7.457041286727292e-09</v>
+        <v>3.298021030908051e-25</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>7.078430457361192e-09</v>
+        <v>3.97260681636416e-25</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>6.910898917804905e-09</v>
+        <v>6.480052961542769e-25</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>6.366632342075591e-09</v>
+        <v>7.621361462596583e-25</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>6.075883225865998e-09</v>
+        <v>7.899025599912325e-25</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>4.456286274598263e-09</v>
+        <v>7.773249767969065e-25</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>3.887433773783721e-09</v>
+        <v>7.841785624766177e-25</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>3.107130853505388e-09</v>
+        <v>7.79630920898689e-25</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.154900826105704e-09</v>
+        <v>7.081560942512301e-25</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.852425560840921e-09</v>
+        <v>6.392676360806354e-25</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.509551093784171e-09</v>
+        <v>3.631857509383814e-25</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.389398196673226e-09</v>
+        <v>1.964297737805879e-25</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.391934032650133e-09</v>
+        <v>1.491243284548256e-25</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.349245895442498e-09</v>
+        <v>1.397792093575437e-25</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.235480281092548e-09</v>
+        <v>1.79924514084444e-25</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.204198758404818e-09</v>
+        <v>1.928807259562717e-25</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.183631937855416e-09</v>
+        <v>2.710156668726191e-25</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.284466909205625e-09</v>
+        <v>3.276211745569641e-25</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.350518122883777e-09</v>
+        <v>3.269189045531305e-25</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.375541489438646e-09</v>
+        <v>2.980452590580306e-25</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.339300762755812e-09</v>
+        <v>2.54275447020796e-25</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.269473577807039e-09</v>
+        <v>2.1610783306997e-25</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.137847539128087e-09</v>
+        <v>1.752917694066461e-25</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>9.248208095371422e-10</v>
+        <v>1.546594198083591e-25</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>5.160122855968367e-10</v>
+        <v>1.504180464072268e-25</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>4.100841068174159e-10</v>
+        <v>1.381942747023718e-25</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.12481595573754e-10</v>
+        <v>1.352570479506096e-25</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.162398916595389e-10</v>
+        <v>1.273628511498395e-25</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.897832243814899e-10</v>
+        <v>1.329626644829455e-25</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.78330492525574e-10</v>
+        <v>1.463194327794967e-25</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.76629371009059e-10</v>
+        <v>1.576834984416252e-25</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.642944678921768e-10</v>
+        <v>1.695536657424804e-25</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.621768620892962e-10</v>
+        <v>1.867278890473292e-25</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.61606727920098e-10</v>
+        <v>1.961731954647813e-25</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.603887314669698e-10</v>
+        <v>1.837950097914379e-25</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.538960484687469e-10</v>
+        <v>1.583581488257249e-25</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.471831161429086e-10</v>
+        <v>1.554077527931042e-25</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.440566319154372e-10</v>
+        <v>1.33201478987014e-25</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.276784121846618e-10</v>
+        <v>1.261305723988894e-25</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.273396373406117e-10</v>
+        <v>1.227346578409158e-25</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.275336594824621e-10</v>
+        <v>1.500574525697473e-25</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.224231362010053e-10</v>
+        <v>1.300064436120038e-25</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.022381507724155e-10</v>
+        <v>1.316459961235073e-25</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>8.44339975792227e-11</v>
+        <v>1.177245711296089e-25</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>7.547306371339856e-11</v>
+        <v>1.084210316356618e-25</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>7.243672228065908e-11</v>
+        <v>1.013027216432001e-25</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>8.581231713051696e-11</v>
+        <v>9.213449934052046e-26</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.417271192822604e-10</v>
+        <v>8.466414944145065e-26</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.67381573846316e-10</v>
+        <v>8.517894217839504e-26</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.721829873364845e-10</v>
+        <v>4.225486282282282e-26</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.693063614300163e-10</v>
+        <v>1.672791932888979e-26</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.687132245686853e-10</v>
+        <v>9.86086927165349e-27</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.682852665952825e-10</v>
+        <v>1.415103259026577e-26</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.517382615028661e-10</v>
+        <v>8.77059348719382e-27</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.359887570840749e-10</v>
+        <v>6.903421065594938e-27</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>7.553208617144979e-11</v>
+        <v>5.615036316133388e-27</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>3.927549178649102e-11</v>
+        <v>5.516846997765294e-27</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.84961332486634e-11</v>
+        <v>7.396350727565645e-27</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>2.625655368844075e-11</v>
+        <v>1.234630700886716e-26</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>3.315890217145003e-11</v>
+        <v>1.252697078596891e-26</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>3.538662785012318e-11</v>
+        <v>9.848054449310964e-27</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>4.959525391961191e-11</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.962312002531652e-11</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5.823465803071459e-11</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.304367514817492e-11</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.519920320654962e-11</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.48371261502013e-11</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.806203347041732e-11</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.055937276467417e-11</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.648836753848962e-11</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.53750370580748e-11</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.372625898673445e-11</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.292508394130084e-11</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.092535972637342e-11</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.197681652994904e-11</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.407922188304528e-11</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.589384932427284e-11</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.759366143160444e-11</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.033311712554949e-11</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.23898225416513e-11</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.086413788067149e-11</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.95274108039812e-11</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.510001516514056e-11</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.459908744147366e-11</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.090935796220203e-11</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.974993005130629e-11</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.918224229124927e-11</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.348073439421347e-11</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.016310269668741e-11</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.030704371559424e-11</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.808171261413829e-11</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.658490445701245e-11</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.539947332254789e-11</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.410794526587446e-11</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.278312990104086e-11</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.2754321556143e-11</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.200349471641717e-12</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.409205960069707e-12</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.447054325938391e-12</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.035219769244025e-12</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.25799229433184e-12</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>9.973206274135117e-13</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>8.115961142039485e-13</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>7.985378608490586e-13</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.02009670504812e-12</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.687250385639686e-12</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.68054146236124e-12</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.302706321797025e-12</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.11186982267649e-12</v>
+        <v>8.46514112602426e-27</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>6.592970760085348e-23</v>
+        <v>3.449934272890119e-23</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>6.988932451554644e-23</v>
+        <v>4.335398699855126e-23</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>8.620156757006275e-23</v>
+        <v>6.15107783096729e-23</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.14794663251746e-22</v>
+        <v>9.482744488688866e-23</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.430302942313227e-22</v>
+        <v>1.284833190771575e-22</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2.667956772121804e-22</v>
+        <v>2.446937612044926e-22</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>4.115540807570333e-22</v>
+        <v>3.993756364292035e-22</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.057358450020449e-21</v>
+        <v>1.032325948952387e-21</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.623475958579946e-21</v>
+        <v>1.589481392130707e-21</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.634527012101801e-21</v>
+        <v>1.622351689240985e-21</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.215628146732826e-21</v>
+        <v>1.199737344281482e-21</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>5.821216430507631e-22</v>
+        <v>5.764781709069538e-22</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>4.407204153280779e-22</v>
+        <v>4.277426737283776e-22</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>5.475643528777981e-22</v>
+        <v>5.406751871118979e-22</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.401709241721132e-22</v>
+        <v>2.292418275608374e-22</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.66025525492745e-22</v>
+        <v>1.586522567260126e-22</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>9.268980219917193e-23</v>
+        <v>8.018300033250998e-23</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>4.586912729090012e-23</v>
+        <v>3.709526432484341e-23</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>3.444405745553724e-23</v>
+        <v>2.766910245260782e-23</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>3.343530090022058e-23</v>
+        <v>2.539801457151378e-23</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>3.926811127129991e-23</v>
+        <v>3.337835110882203e-23</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>4.703633194406607e-23</v>
+        <v>4.462053309058672e-23</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>4.360999713636429e-23</v>
+        <v>3.671809702389672e-23</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>8.535462835701102e-23</v>
+        <v>7.403591556037692e-23</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.26862195013448e-22</v>
+        <v>1.123687862773029e-22</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>2.695722219269083e-22</v>
+        <v>2.670673141194169e-22</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>6.209697362604268e-22</v>
+        <v>6.172603297948772e-22</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>5.593370111115502e-22</v>
+        <v>5.521895123865781e-22</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.718247161295287e-22</v>
+        <v>2.701757899626525e-22</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.311766079649315e-22</v>
+        <v>1.265693996037722e-22</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>6.011211871483176e-23</v>
+        <v>5.752828060883796e-23</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.598949713911973e-23</v>
+        <v>5.327813463748407e-23</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.497935056154219e-23</v>
+        <v>3.596154770823831e-23</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.977504496188738e-23</v>
+        <v>2.284396384080794e-23</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.706052419320436e-23</v>
+        <v>1.673969537106491e-23</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.965784994987117e-23</v>
+        <v>1.902396634278373e-23</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>3.809970399970035e-23</v>
+        <v>3.746517522122908e-23</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.107560742876592e-23</v>
+        <v>2.071383804300724e-23</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>8.606262782578748e-24</v>
+        <v>7.890374715614548e-24</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>7.039945854515554e-24</v>
+        <v>6.171491850974483e-24</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>5.218917798962194e-24</v>
+        <v>4.85162232043517e-24</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>5.277227972695229e-24</v>
+        <v>4.824408297963859e-24</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>8.094778115272711e-24</v>
+        <v>7.940531861448914e-24</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.741808629939654e-23</v>
+        <v>1.717254401957785e-23</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.891665513384326e-23</v>
+        <v>1.865247761013869e-23</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.98944225491928e-23</v>
+        <v>1.989217016943682e-23</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.94469332114454e-23</v>
+        <v>1.936456870494689e-23</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.634217318130768e-23</v>
+        <v>1.612136536528311e-23</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.328124378883428e-23</v>
+        <v>1.307060719532033e-23</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>9.136918694454599e-24</v>
+        <v>9.185738581914217e-24</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>7.678329064256064e-24</v>
+        <v>7.607195062945905e-24</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>7.000169781121812e-24</v>
+        <v>7.077863148452282e-24</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>6.784264682986671e-24</v>
+        <v>6.675115533561038e-24</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>6.337416980837264e-24</v>
+        <v>6.077190801615601e-24</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>5.77495149402998e-24</v>
+        <v>5.557858986297161e-24</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.551472371833441e-24</v>
+        <v>5.470962625725548e-24</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>6.367970189856639e-24</v>
+        <v>6.278563468188607e-24</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>8.232069158328179e-24</v>
+        <v>8.234540831688734e-24</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.124101977013933e-23</v>
+        <v>1.129956845800405e-23</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.349994037832926e-23</v>
+        <v>1.355585979679453e-23</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.626259646161762e-23</v>
+        <v>1.63043574526314e-23</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.905028032035551e-23</v>
+        <v>1.913833413451009e-23</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.977884239564927e-23</v>
+        <v>1.981241755715174e-23</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.309362258826734e-23</v>
+        <v>2.311606771354498e-23</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>2.569860871415034e-23</v>
+        <v>2.583480835284924e-23</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>2.512959670404101e-23</v>
+        <v>2.520742790378023e-23</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>2.639584627757617e-23</v>
+        <v>2.669091230569732e-23</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>2.569890102942751e-23</v>
+        <v>2.576286080453846e-23</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.485732942065623e-23</v>
+        <v>2.502721324491593e-23</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>2.369127604651907e-23</v>
+        <v>2.380064670603304e-23</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>2.319609831528206e-23</v>
+        <v>2.323801534706014e-23</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>2.14462614931265e-23</v>
+        <v>2.165984550531589e-23</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>2.057547855585347e-23</v>
+        <v>2.065411024099687e-23</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>1.53566975845871e-23</v>
+        <v>1.548751828521162e-23</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1.353035634419924e-23</v>
+        <v>1.3534746403805e-23</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.088730285855735e-23</v>
+        <v>1.092282672038412e-23</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>7.681373423155803e-24</v>
+        <v>7.728946647361178e-24</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>6.674039849041164e-24</v>
+        <v>6.70772039785884e-24</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>5.493855820962098e-24</v>
+        <v>5.506211427261519e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>5.079472360139932e-24</v>
+        <v>5.10174094704235e-24</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>5.09486505347763e-24</v>
+        <v>5.107746303525166e-24</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>4.956939479351796e-24</v>
+        <v>4.973041259269927e-24</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>4.569027232167918e-24</v>
+        <v>4.579135410372692e-24</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>4.482059235964506e-24</v>
+        <v>4.488181001621699e-24</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>4.436877881613648e-24</v>
+        <v>4.440110470059999e-24</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>4.794639364411239e-24</v>
+        <v>4.813480714474237e-24</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>5.087353839103508e-24</v>
+        <v>5.087856346654306e-24</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>5.201520989365834e-24</v>
+        <v>5.198631455119829e-24</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>5.1011190300625e-24</v>
+        <v>5.103134198723844e-24</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>4.840869860301159e-24</v>
+        <v>4.856056775335693e-24</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>4.374796914631796e-24</v>
+        <v>4.371797035734486e-24</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.597712978287735e-24</v>
+        <v>3.616360790833471e-24</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.047389826242485e-24</v>
+        <v>2.060353813849262e-24</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.643137342022173e-24</v>
+        <v>1.660400011422864e-24</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.271497457959941e-24</v>
+        <v>1.278095196787054e-24</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>8.963785687607498e-25</v>
+        <v>9.015355577144665e-25</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>7.997275136961873e-25</v>
+        <v>8.00965274095498e-25</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>7.57661094043338e-25</v>
+        <v>7.579157387547787e-25</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>7.527349813283297e-25</v>
+        <v>7.483538635406158e-25</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>7.009758984355778e-25</v>
+        <v>6.962915335541592e-25</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>6.928135307262895e-25</v>
+        <v>6.933140828863943e-25</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>6.955044987628196e-25</v>
+        <v>6.904747158359141e-25</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>6.848842787039136e-25</v>
+        <v>6.858257305880491e-25</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>6.572816835964645e-25</v>
+        <v>6.633177308835832e-25</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>6.282192571651804e-25</v>
+        <v>6.254111027517818e-25</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>6.082130951786993e-25</v>
+        <v>6.071251431506854e-25</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>5.604078343472378e-25</v>
+        <v>5.57480156462064e-25</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>5.577707502449095e-25</v>
+        <v>5.529197754604992e-25</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>5.635151128304663e-25</v>
+        <v>5.627849443910213e-25</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>5.413788566312063e-25</v>
+        <v>5.333722166166201e-25</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>4.55292173334812e-25</v>
+        <v>4.512971478889565e-25</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>3.821150748101205e-25</v>
+        <v>3.83769266789916e-25</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>3.441105178391012e-25</v>
+        <v>3.441295577469575e-25</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>3.298021030908051e-25</v>
+        <v>3.342346714014273e-25</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>3.97260681636416e-25</v>
+        <v>3.958142016978636e-25</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>6.480052961542769e-25</v>
+        <v>6.450431861351896e-25</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>7.621361462596583e-25</v>
+        <v>7.628056454016863e-25</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>7.899025599912325e-25</v>
+        <v>7.877701254340994e-25</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>7.773249767969065e-25</v>
+        <v>7.763116950827808e-25</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>7.841785624766177e-25</v>
+        <v>7.83486213854543e-25</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>7.79630920898689e-25</v>
+        <v>7.825452068063574e-25</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>7.081560942512301e-25</v>
+        <v>7.121029055761658e-25</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>6.392676360806354e-25</v>
+        <v>6.434367378652338e-25</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>3.631857509383814e-25</v>
+        <v>3.638759161465809e-25</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.964297737805879e-25</v>
+        <v>1.980829669679182e-25</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.491243284548256e-25</v>
+        <v>1.492004625570357e-25</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.397792093575437e-25</v>
+        <v>1.409231880213675e-25</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.79924514084444e-25</v>
+        <v>1.79963487956815e-25</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.928807259562717e-25</v>
+        <v>1.924615067401373e-25</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.710156668726191e-25</v>
+        <v>2.696710050597926e-25</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>3.276211745569641e-25</v>
+        <v>3.330114513068387e-25</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>3.269189045531305e-25</v>
+        <v>3.27401445906491e-25</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>2.980452590580306e-25</v>
+        <v>2.984058257550715e-25</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2.54275447020796e-25</v>
+        <v>2.539741772280128e-25</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>2.1610783306997e-25</v>
+        <v>2.1523856756229e-25</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.752917694066461e-25</v>
+        <v>1.778363094926057e-25</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.546594198083591e-25</v>
+        <v>1.53355069455892e-25</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.504180464072268e-25</v>
+        <v>1.474530905623685e-25</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.381942747023718e-25</v>
+        <v>1.270540551707659e-25</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.352570479506096e-25</v>
+        <v>1.343820225964573e-25</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.273628511498395e-25</v>
+        <v>1.277605895497495e-25</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.329626644829455e-25</v>
+        <v>1.281847812944954e-25</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.463194327794967e-25</v>
+        <v>1.448879364129149e-25</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.576834984416252e-25</v>
+        <v>1.569617661918821e-25</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.695536657424804e-25</v>
+        <v>1.688244430534683e-25</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.867278890473292e-25</v>
+        <v>1.863137659154206e-25</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.961731954647813e-25</v>
+        <v>1.965065632549366e-25</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.837950097914379e-25</v>
+        <v>1.832970202175468e-25</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.583581488257249e-25</v>
+        <v>1.588599046097498e-25</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.554077527931042e-25</v>
+        <v>1.560586796911995e-25</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.33201478987014e-25</v>
+        <v>1.341241747191202e-25</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.261305723988894e-25</v>
+        <v>1.264606215461773e-25</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.227346578409158e-25</v>
+        <v>1.232229177653814e-25</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.500574525697473e-25</v>
+        <v>1.508751431281842e-25</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.300064436120038e-25</v>
+        <v>1.303089338711173e-25</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.316459961235073e-25</v>
+        <v>1.323465667924649e-25</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.177245711296089e-25</v>
+        <v>1.182124852690359e-25</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.084210316356618e-25</v>
+        <v>1.088963640511178e-25</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.013027216432001e-25</v>
+        <v>1.013783769263143e-25</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>9.213449934052046e-26</v>
+        <v>9.278278752177387e-26</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>8.466414944145065e-26</v>
+        <v>8.504571522513016e-26</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>8.517894217839504e-26</v>
+        <v>8.571502815272734e-26</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>4.225486282282282e-26</v>
+        <v>4.249634524963358e-26</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.672791932888979e-26</v>
+        <v>1.722501311344967e-26</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>9.86086927165349e-27</v>
+        <v>1.007418232120589e-26</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.415103259026577e-26</v>
+        <v>1.439343305510304e-26</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>8.77059348719382e-27</v>
+        <v>9.051914852804834e-27</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>6.903421065594938e-27</v>
+        <v>7.170596216783622e-27</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.615036316133388e-27</v>
+        <v>5.813061252206036e-27</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>5.516846997765294e-27</v>
+        <v>5.049530979626595e-27</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>7.396350727565645e-27</v>
+        <v>7.453821473079662e-27</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.234630700886716e-26</v>
+        <v>1.226460150699794e-26</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.252697078596891e-26</v>
+        <v>1.265108799338843e-26</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>9.848054449310964e-27</v>
+        <v>1.001220072447409e-26</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>8.46514112602426e-27</v>
+        <v>8.637230064104632e-27</v>
       </c>
     </row>
   </sheetData>
